--- a/changedates.xlsx
+++ b/changedates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vzcet\OneDrive\Documents\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6991D9-3207-41D8-B6BF-E672C57E0A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92F8FF-C2DF-4616-A601-EFA7189219D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{280C0FE3-F51D-4B55-9C84-8596CFDB2563}"/>
   </bookViews>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="63">
   <si>
     <t>Link</t>
   </si>
@@ -204,9 +195,6 @@
     <t>Went back to virtual 11/18/2020</t>
   </si>
   <si>
-    <t>Date of return</t>
-  </si>
-  <si>
     <t>More details</t>
   </si>
   <si>
@@ -219,7 +207,22 @@
     <t>11/17, they're all virtual</t>
   </si>
   <si>
-    <t>Notes (not comprehensive)</t>
+    <t>county</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -594,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8BAF25-EC44-46F8-B3F4-4EE2CA905DCD}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,820 +608,820 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>44112</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>44116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>44109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>44151</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>44103</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
         <v>44144</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>43837</v>
+        <v>44203</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
         <v>44109</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>44215</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
         <v>44151</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <v>44144</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
         <v>44144</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>44140</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
       </c>
       <c r="D15" s="2">
         <v>44111</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
         <v>44151</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <v>44123</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
         <v>44123</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
         <v>44130</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
         <v>44123</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
         <v>44166</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
         <v>44113</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>44126</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
         <v>44120</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2">
         <v>44144</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
         <v>44172</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>44116</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2">
         <v>44088</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
         <v>44088</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>44144</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>44166</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
         <v>44109</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2">
         <v>44132</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2">
         <v>44102</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2">
         <v>44116</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
         <v>44130</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
         <v>44116</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2">
         <v>44131</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2">
         <v>44147</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2">
         <v>44116</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2">
         <v>44145</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2">
         <v>44109</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D43" s="2">
         <v>44144</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D44" s="2">
         <v>44158</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
         <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
       </c>
       <c r="D45" s="2">
         <v>44102</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
       </c>
       <c r="D46" s="2">
         <v>44116</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2">
         <v>44109</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
